--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -724,22 +724,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,0; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,96</t>
+          <t>0,84; 7,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 14,23</t>
+          <t>3,37; 14,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,74</t>
+          <t>2,58; 13,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +749,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,62</t>
+          <t>3,96; 15,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,33</t>
+          <t>3,37; 14,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,56</t>
+          <t>5,22; 12,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,97</t>
+          <t>3,27; 9,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,2</t>
+          <t>4,75; 11,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,11</t>
+          <t>5,16; 11,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,29</t>
+          <t>1,15; 3,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,44</t>
+          <t>3,51; 7,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,75</t>
+          <t>1,85; 5,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,15</t>
+          <t>4,67; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,76</t>
+          <t>1,09; 3,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,52</t>
+          <t>8,63; 14,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,66</t>
+          <t>4,27; 8,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,27</t>
+          <t>5,46; 8,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,13</t>
+          <t>1,38; 3,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,03</t>
+          <t>6,69; 9,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,11</t>
+          <t>3,53; 6,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,07</t>
+          <t>5,53; 8,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,69</t>
+          <t>2,92; 5,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,31</t>
+          <t>3,57; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,95</t>
+          <t>1,81; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,41</t>
+          <t>2,72; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,81</t>
+          <t>3,12; 6,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,52; 10,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,99</t>
+          <t>3,25; 6,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,74</t>
+          <t>6,06; 8,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,17</t>
+          <t>3,35; 5,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,56</t>
+          <t>5,51; 7,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,46</t>
+          <t>2,83; 4,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,52</t>
+          <t>4,67; 6,57</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,07</t>
+          <t>2,07; 4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,73</t>
+          <t>2,72; 5,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,19</t>
+          <t>2,45; 5,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,23</t>
+          <t>3,93; 7,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,21</t>
+          <t>3,97; 7,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,88</t>
+          <t>6,7; 10,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,86</t>
+          <t>3,71; 7,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,8</t>
+          <t>3,94; 7,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,68</t>
+          <t>3,39; 5,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,71</t>
+          <t>5,02; 7,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,6</t>
+          <t>3,43; 5,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,04</t>
+          <t>4,46; 7,17</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,62</t>
+          <t>2,21; 4,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,31</t>
+          <t>3,37; 6,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,27</t>
+          <t>2,72; 5,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,66</t>
+          <t>4,72; 7,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,49</t>
+          <t>5,36; 8,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,04</t>
+          <t>8,17; 11,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,21</t>
+          <t>4,86; 7,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,97</t>
+          <t>7,16; 10,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,19</t>
+          <t>4,27; 6,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,82</t>
+          <t>6,4; 8,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,44</t>
+          <t>4,17; 6,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,33</t>
+          <t>6,36; 8,42</t>
         </is>
       </c>
     </row>
@@ -1424,47 +1424,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,56; 3,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,94; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,81; 4,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,09</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,11; 5,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,39; 10,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,78; 6,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,06</t>
+          <t>6,44; 8,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,03; 5,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 6,88</t>
+          <t>5,81; 6,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,45</t>
+          <t>0,8; 7,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,17</t>
+          <t>3,83; 14,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 15,75</t>
+          <t>4,05; 15,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,78</t>
+          <t>3,55; 15,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,19</t>
+          <t>3,2; 9,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,84</t>
+          <t>4,6; 12,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,46</t>
+          <t>1,0; 3,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,61</t>
+          <t>3,57; 7,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,08</t>
+          <t>1,82; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,72</t>
+          <t>1,17; 3,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 14,27</t>
+          <t>8,92; 14,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,6</t>
+          <t>4,2; 8,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,12</t>
+          <t>1,37; 2,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,99</t>
+          <t>6,8; 10,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,11</t>
+          <t>3,42; 6,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,38</t>
+          <t>2,87; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,54</t>
+          <t>3,63; 6,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 3,87</t>
+          <t>1,79; 3,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,0</t>
+          <t>3,05; 6,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,04</t>
+          <t>6,42; 9,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,01</t>
+          <t>3,38; 6,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,28</t>
+          <t>3,33; 5,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,71</t>
+          <t>5,5; 7,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,53</t>
+          <t>2,69; 4,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,98</t>
+          <t>2,15; 5,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,79</t>
+          <t>2,67; 5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,31</t>
+          <t>2,38; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,19</t>
+          <t>3,86; 7,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,94</t>
+          <t>6,51; 10,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,13</t>
+          <t>3,56; 6,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,53</t>
+          <t>5,04; 7,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,63</t>
+          <t>3,39; 5,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,43</t>
+          <t>2,25; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,32</t>
+          <t>3,53; 6,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,24</t>
+          <t>2,82; 5,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,49</t>
+          <t>5,48; 8,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,97</t>
+          <t>7,95; 11,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,97</t>
+          <t>4,75; 8,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,23</t>
+          <t>4,17; 6,12</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,8</t>
+          <t>6,33; 8,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,26</t>
+          <t>4,25; 6,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,82</t>
+          <t>2,65; 3,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,39</t>
+          <t>3,91; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,17</t>
+          <t>2,81; 4,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,6</t>
+          <t>4,11; 5,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,35</t>
+          <t>8,42; 10,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,41</t>
+          <t>4,82; 6,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,52</t>
+          <t>3,59; 4,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,02</t>
+          <t>4,01; 5,01</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,21</t>
+          <t>0,72; 6,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,85</t>
+          <t>3,77; 14,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 13,73</t>
+          <t>2,31; 13,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 15,45</t>
+          <t>4,02; 15,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 15,19</t>
+          <t>2,87; 14,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 12,46</t>
+          <t>5,36; 12,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,22</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,27</t>
+          <t>3,29; 9,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,34</t>
+          <t>4,59; 12,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,52</t>
+          <t>4,86; 11,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,36</t>
+          <t>1,01; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,55</t>
+          <t>3,67; 7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,76</t>
+          <t>1,85; 4,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,82</t>
+          <t>4,76; 9,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,78</t>
+          <t>1,12; 3,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,52</t>
+          <t>9,0; 14,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,54</t>
+          <t>4,27; 8,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,48</t>
+          <t>5,29; 8,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,97</t>
+          <t>1,36; 3,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,17</t>
+          <t>6,66; 10,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,08</t>
+          <t>3,48; 6,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,05</t>
+          <t>5,45; 8,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,5</t>
+          <t>2,97; 5,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,46</t>
+          <t>3,43; 6,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,84</t>
+          <t>1,82; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,29</t>
+          <t>2,81; 5,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,08</t>
+          <t>3,07; 5,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,85</t>
+          <t>6,61; 10,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,02</t>
+          <t>3,36; 5,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 8,73</t>
+          <t>6,11; 8,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 5,33</t>
+          <t>3,37; 5,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,8</t>
+          <t>5,42; 7,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,37</t>
+          <t>2,77; 4,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 6,57</t>
+          <t>4,71; 6,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,29</t>
+          <t>2,09; 5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,81</t>
+          <t>2,62; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,25</t>
+          <t>2,35; 5,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,4</t>
+          <t>3,99; 7,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,48</t>
+          <t>3,86; 7,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 10,81</t>
+          <t>6,76; 10,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,94</t>
+          <t>3,58; 6,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,77</t>
+          <t>3,86; 7,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,55</t>
+          <t>3,41; 5,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,65</t>
+          <t>5,02; 7,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,66</t>
+          <t>3,41; 5,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,17</t>
+          <t>4,4; 7,04</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,62</t>
+          <t>2,13; 4,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 6,42</t>
+          <t>3,47; 6,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,47</t>
+          <t>2,78; 5,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,89</t>
+          <t>4,66; 7,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,7</t>
+          <t>5,34; 8,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,87</t>
+          <t>8,13; 12,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,04</t>
+          <t>4,9; 8,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,0</t>
+          <t>7,12; 9,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,12</t>
+          <t>4,15; 6,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 8,72</t>
+          <t>6,34; 8,82</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,31</t>
+          <t>4,21; 6,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 8,42</t>
+          <t>6,35; 8,33</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,89</t>
+          <t>2,59; 3,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,39</t>
+          <t>3,96; 5,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,12</t>
+          <t>2,85; 4,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,55; 6,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,57</t>
+          <t>4,15; 5,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,35</t>
+          <t>8,41; 10,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,39</t>
+          <t>4,77; 6,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,04</t>
+          <t>6,44; 8,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,56</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,67</t>
+          <t>6,35; 7,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,01</t>
+          <t>4,05; 5,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,89</t>
+          <t>5,83; 6,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,96; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 6,96</t>
+          <t>3,4; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 14,23</t>
+          <t>2,53; 5,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 13,74</t>
+          <t>4,68; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,41</t>
+          <t>1,08; 3,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 15,62</t>
+          <t>8,61; 13,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,33</t>
+          <t>4,66; 8,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,56</t>
+          <t>5,67; 8,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>1,29; 2,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,97</t>
+          <t>6,59; 9,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,2</t>
+          <t>3,95; 6,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,11</t>
+          <t>5,63; 7,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,09%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>6,51%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,41%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,33%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,29</t>
+          <t>2,97; 5,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,44</t>
+          <t>3,43; 6,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,75</t>
+          <t>1,82; 3,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,15</t>
+          <t>1,65; 4,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,76</t>
+          <t>3,07; 5,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,52</t>
+          <t>6,61; 10,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,66</t>
+          <t>3,36; 5,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,27</t>
+          <t>6,12; 8,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,13</t>
+          <t>3,37; 5,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 10,03</t>
+          <t>5,42; 7,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,11</t>
+          <t>2,77; 4,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,07</t>
+          <t>3,34; 5,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,69</t>
+          <t>2,09; 5,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,31</t>
+          <t>2,62; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,95</t>
+          <t>2,35; 5,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,41</t>
+          <t>3,88; 7,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,81</t>
+          <t>3,86; 7,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,76; 10,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,99</t>
+          <t>3,58; 6,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 8,74</t>
+          <t>2,51; 7,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,17</t>
+          <t>3,41; 5,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,56</t>
+          <t>5,02; 7,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,46</t>
+          <t>3,41; 5,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,52</t>
+          <t>3,37; 6,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,96%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,07</t>
+          <t>2,13; 4,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,73</t>
+          <t>3,47; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,19</t>
+          <t>2,78; 5,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,23</t>
+          <t>4,6; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,21</t>
+          <t>5,34; 8,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,88</t>
+          <t>8,13; 12,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,86</t>
+          <t>4,9; 8,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,8</t>
+          <t>6,12; 9,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,68</t>
+          <t>4,15; 6,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,71</t>
+          <t>6,34; 8,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,6</t>
+          <t>4,21; 6,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,04</t>
+          <t>5,84; 7,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,62</t>
+          <t>2,59; 3,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,31</t>
+          <t>3,96; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,27</t>
+          <t>2,85; 4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,66</t>
+          <t>3,76; 5,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,49</t>
+          <t>4,15; 5,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,04</t>
+          <t>8,41; 10,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,21</t>
+          <t>4,77; 6,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,97</t>
+          <t>5,69; 7,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,19</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,82</t>
+          <t>6,35; 7,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,44</t>
+          <t>4,05; 5,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 8,33</t>
+          <t>5,09; 6,46</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,03%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,03%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 3,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,96; 5,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,85; 4,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 6,09</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 5,62</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>8,41; 10,27</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 6,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 8,06</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 4,54</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 7,7</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,05; 5,08</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 6,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,91</t>
+          <t>0,98; 3,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,81</t>
+          <t>3,46; 6,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,42</t>
+          <t>2,62; 5,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,58</t>
+          <t>4,64; 8,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,19</t>
+          <t>1,09; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,55</t>
+          <t>8,84; 13,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,52</t>
+          <t>4,82; 8,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,49</t>
+          <t>5,7; 8,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,8</t>
+          <t>1,26; 2,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 9,47</t>
+          <t>6,5; 9,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,32</t>
+          <t>4,01; 6,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,63; 7,83</t>
+          <t>5,61; 7,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 5,69</t>
+          <t>2,89; 5,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,31</t>
+          <t>3,53; 6,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,95</t>
+          <t>1,72; 3,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,46</t>
+          <t>1,72; 4,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,81</t>
+          <t>3,03; 5,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,09</t>
+          <t>6,6; 9,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,99</t>
+          <t>3,23; 5,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 8,73</t>
+          <t>6,02; 8,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,17</t>
+          <t>3,34; 5,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,56</t>
+          <t>5,42; 7,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,46</t>
+          <t>2,83; 4,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,97</t>
+          <t>3,15; 6,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,07</t>
+          <t>2,08; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,73</t>
+          <t>2,72; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,19</t>
+          <t>2,38; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,09</t>
+          <t>3,78; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,21</t>
+          <t>3,85; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 10,88</t>
+          <t>6,66; 10,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,86</t>
+          <t>3,72; 6,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,26</t>
+          <t>2,61; 7,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,68</t>
+          <t>3,42; 5,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,71</t>
+          <t>5,17; 7,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,6</t>
+          <t>3,41; 5,64</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,43</t>
+          <t>3,34; 6,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,62</t>
+          <t>2,26; 4,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,31</t>
+          <t>3,42; 6,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,27</t>
+          <t>2,62; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,56</t>
+          <t>4,52; 7,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,49</t>
+          <t>5,43; 8,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,04</t>
+          <t>8,26; 11,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 8,21</t>
+          <t>4,97; 8,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,29</t>
+          <t>6,1; 9,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,19</t>
+          <t>4,16; 6,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,82</t>
+          <t>6,31; 8,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,44</t>
+          <t>4,21; 6,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,99</t>
+          <t>5,96; 8,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,62; 3,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,95; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,89; 4,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,67</t>
+          <t>3,61; 5,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,05; 5,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,33; 10,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,74; 6,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 7,71</t>
+          <t>5,55; 7,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,05; 5,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,46</t>
+          <t>5,14; 6,46</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12570</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>34388</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>26277</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39385</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13676</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>76357</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>43173</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46653</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26246</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>110746</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69450</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>86039</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6803; 21212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24309; 47158</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>17670; 37693</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29403; 52789</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7512; 23879</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61562; 95772</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32315; 60262</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38378; 57070</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17398; 38068</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>90874; 135405</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53985; 87953</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73340; 101893</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38907</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49791</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27295</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>36891</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>42046</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83576</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46400</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69617</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80953</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>133368</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73695</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>106508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27762; 51482</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35925; 66234</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17599; 38857</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20504; 54538</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29348; 55486</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68030; 102119</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33622; 61606</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57634; 83371</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64392; 101029</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>111037; 158496</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58323; 92021</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>67661; 129044</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22643</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30061</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27500</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36903</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37039</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66392</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39891</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48045</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59683</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96454</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>67390</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84949</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14081; 34961</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20562; 44279</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18050; 39935</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26608; 49508</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26310; 49711</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51659; 85122</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29149; 54533</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24384; 67967</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>46623; 78461</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>79236; 117803</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52682; 86970</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54695; 104862</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30290</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44700</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36509</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54901</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>71132</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>105234</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66217</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>85761</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101422</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>149934</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>102726</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>140662</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>21291; 43790</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32408; 58637</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24560; 49224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41860; 69713</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>56395; 89734</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>86924; 125303</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>51812; 84664</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>66767; 101514</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>82475; 121128</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>126207; 176135</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>83281; 126679</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>120387; 162861</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>104411</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>158941</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>168081</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>163893</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>331560</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195680</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>250076</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>268304</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>490501</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>313261</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>418157</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>85961; 125506</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>135106; 188271</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97926; 140090</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>124843; 196052</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137011; 189635</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>296176; 369679</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>167866; 223954</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>202910; 280723</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>238296; 303755</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>444062; 535778</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>280753; 353544</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>365723; 459618</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>